--- a/data/trans_dic/P44D-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44D-Edad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.1975809107493777</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.08210873121989898</v>
+        <v>0.08210873121989896</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1551262755760928</v>
+        <v>0.1532669266312568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04186989197787189</v>
+        <v>0.03937624640744537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03464816368537487</v>
+        <v>0.02598834460842219</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08278710729227667</v>
+        <v>0.08947356520412372</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05201646961633578</v>
+        <v>0.05067979648870053</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09609606617208405</v>
+        <v>0.09969745456172417</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08224394089078364</v>
+        <v>0.08321568043675759</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04829881014289678</v>
+        <v>0.04896101082695632</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7352714888619272</v>
+        <v>0.7618607234706871</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3596056058009807</v>
+        <v>0.3318160168054725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1388067153964562</v>
+        <v>0.1533440709182487</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3258754819566739</v>
+        <v>0.3261458856046319</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6170901822206994</v>
+        <v>0.6151206872390804</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1600402597591974</v>
+        <v>0.1554459119884161</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4313551630747731</v>
+        <v>0.4217669139636066</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3489036820852305</v>
+        <v>0.3450591141662243</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.127960518527953</v>
+        <v>0.1332022511686967</v>
       </c>
     </row>
     <row r="7">
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1658786379878798</v>
+        <v>0.1692013758566551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09638682990210334</v>
+        <v>0.09916666814506188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1611210643417381</v>
+        <v>0.1524720461761592</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05172478068218805</v>
+        <v>0.05041791503705311</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1020607015416717</v>
+        <v>0.1051256179601114</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1134689216423815</v>
+        <v>0.1247511086538894</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08427526143666714</v>
+        <v>0.08627863028322635</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3016855440992033</v>
+        <v>0.305649407065896</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.428357249250552</v>
+        <v>0.4335214777952825</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1932868721315252</v>
+        <v>0.192967159253168</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5146931591826571</v>
+        <v>0.5099643965077029</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2267691313031726</v>
+        <v>0.2218676902288612</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1150561688591855</v>
+        <v>0.1128804838235329</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3336057333017698</v>
+        <v>0.3370055594117969</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2983943914307138</v>
+        <v>0.3101269439476761</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1448914151271858</v>
+        <v>0.1473860762954578</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.04652748722749132</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09520739174992283</v>
+        <v>0.09520739174992286</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.08797857551985627</v>
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0643896666297966</v>
+        <v>0.06149275797173842</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0383696825952487</v>
+        <v>0.03789777397884211</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0529897034143121</v>
+        <v>0.05289917089681749</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02849403827542279</v>
+        <v>0.01812262550050239</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04094314634444388</v>
+        <v>0.04010557696339148</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06486803138769506</v>
+        <v>0.06614881678231278</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3285763422662518</v>
+        <v>0.3245784625266814</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1662774434159846</v>
+        <v>0.1560583045423472</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1388334537127864</v>
+        <v>0.1414846547852271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2494873078953446</v>
+        <v>0.2740274840551183</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3114156610807047</v>
+        <v>0.3347874430557916</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1167327499180921</v>
+        <v>0.1174529042257563</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2158097119548263</v>
+        <v>0.2265825967127952</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1679896405718306</v>
+        <v>0.181372568979781</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1141370765724972</v>
+        <v>0.1194984438421074</v>
       </c>
     </row>
     <row r="13">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01885607152325079</v>
+        <v>0.02033057667168288</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02261595553800427</v>
+        <v>0.02383778429373927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05075476205310468</v>
+        <v>0.05099021812343853</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01796088350260981</v>
+        <v>0.01754558232097581</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04187231751171443</v>
+        <v>0.04184020367929053</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0242630104026017</v>
+        <v>0.02326692275624823</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02705112659996661</v>
+        <v>0.02737770588278572</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2236497687047104</v>
+        <v>0.2276889032616047</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.155706269859004</v>
+        <v>0.1592515644862092</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1018386199814278</v>
+        <v>0.1046086595053303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3970777883490564</v>
+        <v>0.4396733973811209</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2239847321739404</v>
+        <v>0.2262233593444345</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06933567475875009</v>
+        <v>0.06962766947512038</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2351184855415283</v>
+        <v>0.230475064447008</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1651973531087257</v>
+        <v>0.15274982416283</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06786599558279729</v>
+        <v>0.07283566348320338</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.1140044804643591</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1541809393775411</v>
@@ -1100,7 +1100,7 @@
         <v>0.1325868921126236</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.08594112537005211</v>
+        <v>0.08594112537005212</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0768936675397817</v>
+        <v>0.0760141445166426</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09636712251178511</v>
+        <v>0.09271824895462728</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07237665745842482</v>
+        <v>0.0722577442665724</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1244494632997211</v>
+        <v>0.1231635693200616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1815658055732495</v>
+        <v>0.1795149900409775</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1014593771050384</v>
+        <v>0.1016033005307841</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2198</v>
+        <v>2172</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1121</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3291</v>
+        <v>2469</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>914</v>
+        <v>988</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4019</v>
+        <v>3916</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3333</v>
+        <v>3458</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3110</v>
+        <v>3147</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8320</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10420</v>
+        <v>10797</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9631</v>
+        <v>8887</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13186</v>
+        <v>14567</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6683</v>
+        <v>6689</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6811</v>
+        <v>6789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12365</v>
+        <v>12010</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14960</v>
+        <v>14627</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13195</v>
+        <v>13050</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22042</v>
+        <v>22945</v>
       </c>
     </row>
     <row r="8">
@@ -1546,28 +1546,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8338</v>
+        <v>8505</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18658</v>
+        <v>19196</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5450</v>
+        <v>5157</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9059</v>
+        <v>8830</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7467</v>
+        <v>7691</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>9506</v>
+        <v>10452</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>31073</v>
+        <v>31812</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11869</v>
+        <v>12025</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21532</v>
+        <v>21791</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>37415</v>
+        <v>37353</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17408</v>
+        <v>17249</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7600</v>
+        <v>7435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20151</v>
+        <v>19770</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24408</v>
+        <v>24657</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24999</v>
+        <v>25982</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53423</v>
+        <v>54342</v>
       </c>
     </row>
     <row r="12">
@@ -1693,25 +1693,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11445</v>
+        <v>10930</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8349</v>
+        <v>8335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1884</v>
+        <v>1198</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2889</v>
+        <v>2830</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21750</v>
+        <v>22180</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10756</v>
+        <v>10625</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7007</v>
+        <v>6577</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24677</v>
+        <v>25148</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8329</v>
+        <v>9149</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8849</v>
+        <v>9513</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18392</v>
+        <v>18505</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14270</v>
+        <v>14982</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11853</v>
+        <v>12797</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>38270</v>
+        <v>40068</v>
       </c>
     </row>
     <row r="16">
@@ -1834,28 +1834,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2436</v>
+        <v>2567</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2156</v>
+        <v>2106</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1801</v>
+        <v>1727</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6161</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5917</v>
+        <v>6024</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5974</v>
+        <v>6110</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10967</v>
+        <v>11265</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>8456</v>
+        <v>9363</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8028</v>
+        <v>8108</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8324</v>
+        <v>8359</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11228</v>
+        <v>11006</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12259</v>
+        <v>11335</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15456</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>44137</v>
+        <v>43632</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25669</v>
+        <v>24697</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>79904</v>
+        <v>79773</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>71434</v>
+        <v>70696</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>48362</v>
+        <v>47816</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>112011</v>
+        <v>112170</v>
       </c>
     </row>
     <row r="24">
